--- a/Assignment2/data.xlsx
+++ b/Assignment2/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjingbo/Desktop/cs4641/Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20BBCF7E-5D5D-994B-B23D-864A98DA69AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0030B00C-28F2-2949-BF4A-6B0B5A8F5B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F26D25E3-05C5-B843-8238-746264B5BF4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>trainingIteration = 1000, trainingIterationGA = 100, random restart = 1,  startingTemperature = 1E11, coolingRate = .95, populationSize = 200, numMate = 100, numMutate = 10</t>
   </si>
@@ -37,15 +37,6 @@
   </si>
   <si>
     <t>GA</t>
-  </si>
-  <si>
-    <t>starting temp</t>
-  </si>
-  <si>
-    <t>test performance</t>
-  </si>
-  <si>
-    <t>cooling</t>
   </si>
   <si>
     <t>population size</t>
@@ -72,19 +63,7 @@
     <t>(numMate = 100, numMutate  10)</t>
   </si>
   <si>
-    <t>mate</t>
-  </si>
-  <si>
-    <t>mutate</t>
-  </si>
-  <si>
     <t>(population = 100)</t>
-  </si>
-  <si>
-    <t>(iterations = 500)</t>
-  </si>
-  <si>
-    <t>fitness value</t>
   </si>
   <si>
     <t>three peaks</t>
@@ -101,13 +80,45 @@
   <si>
     <t>(iterations = 800)</t>
   </si>
+  <si>
+    <t>Test Performance</t>
+  </si>
+  <si>
+    <t>Cooling Rate</t>
+  </si>
+  <si>
+    <t>Starting Temperature</t>
+  </si>
+  <si>
+    <t>Mutate #</t>
+  </si>
+  <si>
+    <t>Mate #</t>
+  </si>
+  <si>
+    <t>mate #</t>
+  </si>
+  <si>
+    <t>mutate #</t>
+  </si>
+  <si>
+    <t>Fitness Value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -148,14 +159,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,7 +207,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -207,14 +220,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Performance vs Random</a:t>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>Performance vs Random Restarts</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Restarts</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -231,7 +239,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -522,7 +530,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -535,7 +543,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
                   <a:t>Random Restarts</a:t>
                 </a:r>
               </a:p>
@@ -554,7 +562,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -642,7 +650,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -655,7 +663,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
                   <a:t>Performance</a:t>
                 </a:r>
               </a:p>
@@ -674,7 +682,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -748,7 +756,2239 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>Performance vs Population Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Training Performance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$6:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.67747000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66522000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66522000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66522000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66522000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66522000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66522000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66522000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66522000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFD1-CB41-90D9-F3BF054BF791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Test Performance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$6:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$6:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.66700999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66496</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CFD1-CB41-90D9-F3BF054BF791}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="719291871"/>
+        <c:axId val="719306079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="719291871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>Population Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719306079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="719306079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>Performance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719291871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>Fitness Value vs Mate Number</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mutate = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$28:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$28:$T$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2914608966882401E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3917774101463399E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3168310855169998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3971364570603299E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3787809446883198E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0467-8145-BFFF-A5B52D58F6D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mutate = 30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$28:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$28:$U$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3774206521637101E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4500598072007699E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4687133780569599E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3998188960437702E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.40913020134377E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0467-8145-BFFF-A5B52D58F6D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mutate = 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$28:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$28:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3522537023656599E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.33478126035686E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3798539048505199E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3381977876216499E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.35536555467238E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0467-8145-BFFF-A5B52D58F6D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Mutate = 70</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$28:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$28:$W$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.42719147668313E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.33293749839208E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4369566397738898E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.34029465967673E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3812082978997302E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0467-8145-BFFF-A5B52D58F6D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Mutate = 90</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$28:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$28:$X$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.4075212837853101E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.29778285817814E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3196547075751001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3322693786666901E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3329534086051098E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0467-8145-BFFF-A5B52D58F6D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="643456303"/>
+        <c:axId val="730350879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="643456303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>Mate Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="730350879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="730350879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>Fitness Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643456303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>Fitness Value vs Mutate Number</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mate = 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$T$27:$X$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$28:$X$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2914608966882401E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3774206521637101E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3522537023656599E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.42719147668313E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4075212837853101E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2CE0-6447-9C79-9F3B526464AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mate = 30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$T$27:$X$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$29:$X$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3917774101463399E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4500598072007699E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.33478126035686E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.33293749839208E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.29778285817814E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2CE0-6447-9C79-9F3B526464AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mate = 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$T$27:$X$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$30:$X$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3168310855169998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4687133780569599E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3798539048505199E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4369566397738898E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3196547075751001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2CE0-6447-9C79-9F3B526464AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Mate = 70</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$T$27:$X$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$31:$X$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3971364570603299E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3998188960437702E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3381977876216499E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.34029465967673E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3322693786666901E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2CE0-6447-9C79-9F3B526464AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Mate = 90</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$T$27:$X$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$32:$X$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3787809446883198E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.40913020134377E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.35536555467238E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3812082978997302E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3329534086051098E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2CE0-6447-9C79-9F3B526464AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="677802847"/>
+        <c:axId val="705575583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="677802847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>Mutate Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705575583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="705575583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>Fitness Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="677802847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -848,7 +3088,1636 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1356,15 +5225,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15488</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>46463</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>566853</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>132575</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1384,6 +5253,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>6812</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D684D6-48E0-9348-92CF-952C8C99242C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>238513</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>139390</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>92927</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A674CF-C549-A84A-80FB-20E8284C2006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>734120</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>696950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123901</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F580102-7797-2048-AB3C-BEA1AAC16EDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1691,24 +5668,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E52295F-4998-4242-A328-00ED18C52E41}">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="82" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1725,27 +5703,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1756,7 +5734,7 @@
         <v>0.66905000000000003</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L5">
         <v>0.3</v>
@@ -1768,19 +5746,19 @@
         <v>0.9</v>
       </c>
       <c r="S5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1812,7 +5790,7 @@
         <v>0.66700999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1848,7 +5826,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>15</v>
       </c>
@@ -1859,7 +5837,7 @@
         <v>0.70377999999999996</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K8" s="2">
         <v>1000000</v>
@@ -1883,7 +5861,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1918,7 +5896,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>25</v>
       </c>
@@ -1953,7 +5931,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>30</v>
       </c>
@@ -1988,7 +5966,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>35</v>
       </c>
@@ -2009,7 +5987,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>40</v>
       </c>
@@ -2027,7 +6005,7 @@
         <v>0.3</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="S13">
         <v>450</v>
@@ -2039,7 +6017,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>45</v>
       </c>
@@ -2056,7 +6034,7 @@
         <v>0.9</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="S14">
         <v>500</v>
@@ -2068,7 +6046,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>50</v>
       </c>
@@ -2085,44 +6063,41 @@
         <v>0.9</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="L16" s="3"/>
       <c r="S16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" t="s">
         <v>12</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U16" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="17" spans="12:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:24">
       <c r="L17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="12:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:24">
       <c r="L18" s="3"/>
-      <c r="S18" t="s">
-        <v>5</v>
+      <c r="S18" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="T18" t="s">
-        <v>16</v>
-      </c>
-      <c r="U18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="19" spans="12:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:24">
       <c r="L19" s="3"/>
       <c r="S19" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="T19">
         <v>10</v>
@@ -2140,9 +6115,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="12:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="12:24">
       <c r="L20" s="3"/>
-      <c r="S20" s="2">
+      <c r="S20" s="4">
         <v>10</v>
       </c>
       <c r="T20" s="1">
@@ -2161,9 +6136,9 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="21" spans="12:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:24">
       <c r="L21" s="3"/>
-      <c r="S21" s="2">
+      <c r="S21" s="4">
         <v>30</v>
       </c>
       <c r="T21" s="1">
@@ -2182,9 +6157,9 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="22" spans="12:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:24">
       <c r="L22" s="3"/>
-      <c r="S22" s="2">
+      <c r="S22" s="4">
         <v>50</v>
       </c>
       <c r="T22" s="1">
@@ -2203,9 +6178,9 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="23" spans="12:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:24">
       <c r="L23" s="3"/>
-      <c r="S23" s="2">
+      <c r="S23" s="4">
         <v>70</v>
       </c>
       <c r="T23" s="1">
@@ -2224,8 +6199,8 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="24" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="S24" s="2">
+    <row r="24" spans="12:24">
+      <c r="S24" s="4">
         <v>90</v>
       </c>
       <c r="T24" s="1">
@@ -2244,23 +6219,20 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="25" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="S25" s="2"/>
+    <row r="25" spans="12:24">
+      <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="S26" t="s">
-        <v>19</v>
+    <row r="26" spans="12:24">
+      <c r="S26" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="T26" t="s">
-        <v>16</v>
-      </c>
-      <c r="U26" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="27" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="S27" t="s">
-        <v>15</v>
+    <row r="27" spans="12:24">
+      <c r="S27" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="T27">
         <v>10</v>
@@ -2278,8 +6250,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="S28" s="2">
+    <row r="28" spans="12:24">
+      <c r="S28" s="4">
         <v>10</v>
       </c>
       <c r="T28" s="4">
@@ -2298,8 +6270,8 @@
         <v>2.4075212837853101E-3</v>
       </c>
     </row>
-    <row r="29" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="S29" s="2">
+    <row r="29" spans="12:24">
+      <c r="S29" s="4">
         <v>30</v>
       </c>
       <c r="T29">
@@ -2318,8 +6290,8 @@
         <v>2.29778285817814E-3</v>
       </c>
     </row>
-    <row r="30" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="S30" s="2">
+    <row r="30" spans="12:24">
+      <c r="S30" s="4">
         <v>50</v>
       </c>
       <c r="T30" s="4">
@@ -2338,8 +6310,8 @@
         <v>2.3196547075751001E-3</v>
       </c>
     </row>
-    <row r="31" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="S31" s="2">
+    <row r="31" spans="12:24">
+      <c r="S31" s="4">
         <v>70</v>
       </c>
       <c r="T31">
@@ -2358,8 +6330,8 @@
         <v>2.3322693786666901E-3</v>
       </c>
     </row>
-    <row r="32" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="S32" s="2">
+    <row r="32" spans="12:24">
+      <c r="S32" s="4">
         <v>90</v>
       </c>
       <c r="T32">
@@ -2378,7 +6350,7 @@
         <v>2.3329534086051098E-3</v>
       </c>
     </row>
-    <row r="34" spans="19:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="19:22">
       <c r="S34" s="2">
         <v>100</v>
       </c>
@@ -2389,10 +6361,10 @@
         <v>50</v>
       </c>
       <c r="V34" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="35" spans="19:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="19:22">
       <c r="T35" s="2">
         <v>50</v>
       </c>
@@ -2400,7 +6372,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="19:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="19:22">
       <c r="T36" s="2">
         <v>10</v>
       </c>
@@ -2408,7 +6380,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="19:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="19:22">
       <c r="T37" s="2">
         <v>30</v>
       </c>
@@ -2416,7 +6388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="19:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="19:22">
       <c r="T38" s="2">
         <v>50</v>
       </c>
@@ -2424,11 +6396,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="19:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="19:22">
       <c r="T39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assignment2/data.xlsx
+++ b/Assignment2/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjingbo/Desktop/cs4641/Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0030B00C-28F2-2949-BF4A-6B0B5A8F5B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977D18C3-91D8-974C-98A8-84BC8354C7E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F26D25E3-05C5-B843-8238-746264B5BF4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>trainingIteration = 1000, trainingIterationGA = 100, random restart = 1,  startingTemperature = 1E11, coolingRate = .95, populationSize = 200, numMate = 100, numMutate = 10</t>
   </si>
@@ -104,12 +104,66 @@
   <si>
     <t>Fitness Value</t>
   </si>
+  <si>
+    <t>Random Restart</t>
+  </si>
+  <si>
+    <t>Test Performance (Time)</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>70.276%(1667.203s)</t>
+  </si>
+  <si>
+    <t>70.582%(2762.298s)</t>
+  </si>
+  <si>
+    <t>69.663%(1724.841s)</t>
+  </si>
+  <si>
+    <t>72.319%(1731.837s)</t>
+  </si>
+  <si>
+    <t>71.91%(2773.755s)</t>
+  </si>
+  <si>
+    <t>70.787%(2751.836)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>70.753%(1707.96s)</t>
+  </si>
+  <si>
+    <t>71.093%(2762.63s)</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>mate</t>
+  </si>
+  <si>
+    <t>mutate</t>
+  </si>
+  <si>
+    <t>flipflop</t>
+  </si>
+  <si>
+    <t>cooling rate</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5227,13 +5281,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:rowOff>6075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:rowOff>6074</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5666,27 +5720,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E52295F-4998-4242-A328-00ED18C52E41}">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="92" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" customWidth="1"/>
     <col min="19" max="19" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5703,7 +5760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5723,7 +5780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5758,7 +5815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5790,7 +5847,7 @@
         <v>0.66700999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -5826,7 +5883,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>15</v>
       </c>
@@ -5861,7 +5918,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20</v>
       </c>
@@ -5896,7 +5953,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>25</v>
       </c>
@@ -5931,7 +5988,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>30</v>
       </c>
@@ -5966,7 +6023,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>35</v>
       </c>
@@ -5987,7 +6044,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>40</v>
       </c>
@@ -6017,7 +6074,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>45</v>
       </c>
@@ -6046,7 +6103,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50</v>
       </c>
@@ -6066,7 +6123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="L16" s="3"/>
       <c r="S16" t="s">
         <v>9</v>
@@ -6081,11 +6138,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="12:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="12:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L18" s="3"/>
       <c r="S18" s="7" t="s">
         <v>18</v>
@@ -6094,7 +6151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="12:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L19" s="3"/>
       <c r="S19" t="s">
         <v>22</v>
@@ -6115,7 +6172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="12:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L20" s="3"/>
       <c r="S20" s="4">
         <v>10</v>
@@ -6136,7 +6193,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="21" spans="12:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L21" s="3"/>
       <c r="S21" s="4">
         <v>30</v>
@@ -6157,7 +6214,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="22" spans="12:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L22" s="3"/>
       <c r="S22" s="4">
         <v>50</v>
@@ -6178,7 +6235,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="23" spans="12:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L23" s="3"/>
       <c r="S23" s="4">
         <v>70</v>
@@ -6199,7 +6256,7 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="24" spans="12:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="S24" s="4">
         <v>90</v>
       </c>
@@ -6219,10 +6276,31 @@
         <v>0.66496</v>
       </c>
     </row>
-    <row r="25" spans="12:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="12:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
       <c r="S26" s="8" t="s">
         <v>25</v>
       </c>
@@ -6230,7 +6308,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="12:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
       <c r="S27" s="4" t="s">
         <v>23</v>
       </c>
@@ -6250,7 +6343,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="12:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
       <c r="S28" s="4">
         <v>10</v>
       </c>
@@ -6270,7 +6378,7 @@
         <v>2.4075212837853101E-3</v>
       </c>
     </row>
-    <row r="29" spans="12:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="S29" s="4">
         <v>30</v>
       </c>
@@ -6290,7 +6398,7 @@
         <v>2.29778285817814E-3</v>
       </c>
     </row>
-    <row r="30" spans="12:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="S30" s="4">
         <v>50</v>
       </c>
@@ -6310,7 +6418,7 @@
         <v>2.3196547075751001E-3</v>
       </c>
     </row>
-    <row r="31" spans="12:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="S31" s="4">
         <v>70</v>
       </c>
@@ -6330,7 +6438,7 @@
         <v>2.3322693786666901E-3</v>
       </c>
     </row>
-    <row r="32" spans="12:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="S32" s="4">
         <v>90</v>
       </c>
@@ -6350,7 +6458,7 @@
         <v>2.3329534086051098E-3</v>
       </c>
     </row>
-    <row r="34" spans="19:22">
+    <row r="34" spans="19:22" x14ac:dyDescent="0.2">
       <c r="S34" s="2">
         <v>100</v>
       </c>
@@ -6364,7 +6472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="19:22">
+    <row r="35" spans="19:22" x14ac:dyDescent="0.2">
       <c r="T35" s="2">
         <v>50</v>
       </c>
@@ -6372,7 +6480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="19:22">
+    <row r="36" spans="19:22" x14ac:dyDescent="0.2">
       <c r="T36" s="2">
         <v>10</v>
       </c>
@@ -6380,7 +6488,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="19:22">
+    <row r="37" spans="19:22" x14ac:dyDescent="0.2">
       <c r="T37" s="2">
         <v>30</v>
       </c>
@@ -6388,7 +6496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="19:22">
+    <row r="38" spans="19:22" x14ac:dyDescent="0.2">
       <c r="T38" s="2">
         <v>50</v>
       </c>
@@ -6396,8 +6504,626 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="19:22">
+    <row r="39" spans="19:22" x14ac:dyDescent="0.2">
       <c r="T39" s="2"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>0.135100995841854</v>
+      </c>
+      <c r="C64">
+        <v>0.12294826250801399</v>
+      </c>
+      <c r="D64">
+        <v>0.12294826250801399</v>
+      </c>
+      <c r="M64">
+        <f>AVERAGE(B64:D64)</f>
+        <v>0.126999173619294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>0.95</v>
+      </c>
+      <c r="E66">
+        <v>0.3</v>
+      </c>
+      <c r="M66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>1000000000000</v>
+      </c>
+      <c r="B67">
+        <v>8.9546248793862901E-2</v>
+      </c>
+      <c r="C67">
+        <v>0.11289996128117499</v>
+      </c>
+      <c r="D67">
+        <v>0.117126954514366</v>
+      </c>
+      <c r="E67">
+        <v>0.10034875990622601</v>
+      </c>
+      <c r="F67">
+        <v>0.10153712808918899</v>
+      </c>
+      <c r="G67">
+        <v>9.6117428606880898E-2</v>
+      </c>
+      <c r="L67" t="s">
+        <v>43</v>
+      </c>
+      <c r="M67">
+        <v>0.95</v>
+      </c>
+      <c r="N67">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B68">
+        <v>0.119159324781383</v>
+      </c>
+      <c r="C68">
+        <v>9.9712931039154906E-2</v>
+      </c>
+      <c r="D68">
+        <v>0.112779140269683</v>
+      </c>
+      <c r="E68">
+        <v>0.12561783462047599</v>
+      </c>
+      <c r="F68">
+        <v>0.10051520397024601</v>
+      </c>
+      <c r="G68">
+        <v>9.9127404005650205E-2</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1000000000000</v>
+      </c>
+      <c r="M68">
+        <f>AVERAGE(B67:D67)</f>
+        <v>0.10652438819646796</v>
+      </c>
+      <c r="N68">
+        <f>AVERAGE(E67:G67)</f>
+        <v>9.9334438867431971E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L69" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M69">
+        <f>AVERAGE(B68:D68)</f>
+        <v>0.11055046536340696</v>
+      </c>
+      <c r="N69">
+        <f>AVERAGE(E68:G68)</f>
+        <v>0.10842014753212408</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="L71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+      <c r="H72">
+        <v>30</v>
+      </c>
+      <c r="M72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>150</v>
+      </c>
+      <c r="B73">
+        <v>0.14161791567701801</v>
+      </c>
+      <c r="C73">
+        <v>0.15634166449103101</v>
+      </c>
+      <c r="D73">
+        <v>0.13148521883551401</v>
+      </c>
+      <c r="E73">
+        <v>0.154662612885204</v>
+      </c>
+      <c r="F73">
+        <v>0.16742850396390599</v>
+      </c>
+      <c r="G73">
+        <v>0.14109119685749999</v>
+      </c>
+      <c r="H73">
+        <v>0.15213638975949401</v>
+      </c>
+      <c r="I73">
+        <v>0.157973537188249</v>
+      </c>
+      <c r="J73">
+        <v>0.166878326264189</v>
+      </c>
+      <c r="L73" t="s">
+        <v>39</v>
+      </c>
+      <c r="M73">
+        <v>10</v>
+      </c>
+      <c r="N73">
+        <v>20</v>
+      </c>
+      <c r="O73">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>100</v>
+      </c>
+      <c r="B74">
+        <v>0.150192887181513</v>
+      </c>
+      <c r="C74">
+        <v>0.15421266796500599</v>
+      </c>
+      <c r="D74">
+        <v>0.14090299376248999</v>
+      </c>
+      <c r="E74">
+        <v>0.15329770543400301</v>
+      </c>
+      <c r="F74">
+        <v>0.13157910990494401</v>
+      </c>
+      <c r="G74">
+        <v>0.15851222299500101</v>
+      </c>
+      <c r="H74">
+        <v>0.152667285424129</v>
+      </c>
+      <c r="I74">
+        <v>0.154081453000011</v>
+      </c>
+      <c r="J74">
+        <v>0.16272975190410499</v>
+      </c>
+      <c r="L74">
+        <v>150</v>
+      </c>
+      <c r="M74">
+        <f>AVERAGE(B73:D73)</f>
+        <v>0.14314826633452102</v>
+      </c>
+      <c r="N74">
+        <f>AVERAGE(E73:G73)</f>
+        <v>0.15439410456886998</v>
+      </c>
+      <c r="O74">
+        <f>AVERAGE(H73:J73)</f>
+        <v>0.15899608440397731</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>50</v>
+      </c>
+      <c r="B75">
+        <v>0.160509196561752</v>
+      </c>
+      <c r="C75">
+        <v>0.16608888146842099</v>
+      </c>
+      <c r="D75">
+        <v>0.153456464730371</v>
+      </c>
+      <c r="E75">
+        <v>0.127381256205543</v>
+      </c>
+      <c r="F75">
+        <v>0.155661902203166</v>
+      </c>
+      <c r="G75">
+        <v>0.14480976857816899</v>
+      </c>
+      <c r="H75">
+        <v>0.154453401816639</v>
+      </c>
+      <c r="I75">
+        <v>0.14425051543072501</v>
+      </c>
+      <c r="J75">
+        <v>0.14587508029424301</v>
+      </c>
+      <c r="L75">
+        <v>100</v>
+      </c>
+      <c r="M75">
+        <f>AVERAGE(B74:D74)</f>
+        <v>0.14843618296966968</v>
+      </c>
+      <c r="N75">
+        <f>AVERAGE(E74:G74)</f>
+        <v>0.14779634611131601</v>
+      </c>
+      <c r="O75">
+        <f>AVERAGE(H74:J74)</f>
+        <v>0.15649283010941498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>50</v>
+      </c>
+      <c r="M76">
+        <f>AVERAGE(B75:D75)</f>
+        <v>0.16001818092018133</v>
+      </c>
+      <c r="N76">
+        <f>AVERAGE(E75:G75)</f>
+        <v>0.14261764232895932</v>
+      </c>
+      <c r="O76">
+        <f>AVERAGE(H75:J75)</f>
+        <v>0.14819299918053566</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <f>AVERAGE(B80:D80)</f>
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>60</v>
+      </c>
+      <c r="C80">
+        <v>65</v>
+      </c>
+      <c r="D80">
+        <v>65</v>
+      </c>
+      <c r="L80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="M81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>0.95</v>
+      </c>
+      <c r="E82">
+        <v>0.3</v>
+      </c>
+      <c r="L82" t="s">
+        <v>43</v>
+      </c>
+      <c r="M82">
+        <v>0.95</v>
+      </c>
+      <c r="N82">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>100</v>
+      </c>
+      <c r="B83">
+        <v>76</v>
+      </c>
+      <c r="C83">
+        <v>77</v>
+      </c>
+      <c r="D83">
+        <v>77</v>
+      </c>
+      <c r="E83">
+        <v>68</v>
+      </c>
+      <c r="F83">
+        <v>69</v>
+      </c>
+      <c r="G83">
+        <v>73</v>
+      </c>
+      <c r="L83" s="2">
+        <v>100</v>
+      </c>
+      <c r="M83">
+        <f>AVERAGE(B83:D83)</f>
+        <v>76.666666666666671</v>
+      </c>
+      <c r="N83">
+        <f>AVERAGE(E83:G83)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <v>76</v>
+      </c>
+      <c r="C84">
+        <v>76</v>
+      </c>
+      <c r="D84">
+        <v>75</v>
+      </c>
+      <c r="E84">
+        <v>72</v>
+      </c>
+      <c r="F84">
+        <v>73</v>
+      </c>
+      <c r="G84">
+        <v>73</v>
+      </c>
+      <c r="L84" s="2">
+        <v>10</v>
+      </c>
+      <c r="M84">
+        <f>AVERAGE(B84:D84)</f>
+        <v>75.666666666666671</v>
+      </c>
+      <c r="N84">
+        <f>AVERAGE(E84:G84)</f>
+        <v>72.666666666666671</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="L86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="M87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <v>20</v>
+      </c>
+      <c r="H88">
+        <v>30</v>
+      </c>
+      <c r="L88" t="s">
+        <v>39</v>
+      </c>
+      <c r="M88">
+        <v>10</v>
+      </c>
+      <c r="N88">
+        <v>20</v>
+      </c>
+      <c r="O88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>150</v>
+      </c>
+      <c r="B89">
+        <v>74</v>
+      </c>
+      <c r="C89">
+        <v>70</v>
+      </c>
+      <c r="D89">
+        <v>74</v>
+      </c>
+      <c r="E89">
+        <v>75</v>
+      </c>
+      <c r="F89">
+        <v>72</v>
+      </c>
+      <c r="G89">
+        <v>72</v>
+      </c>
+      <c r="H89">
+        <v>73</v>
+      </c>
+      <c r="I89">
+        <v>74</v>
+      </c>
+      <c r="J89">
+        <v>77</v>
+      </c>
+      <c r="L89">
+        <v>150</v>
+      </c>
+      <c r="M89">
+        <f>AVERAGE(B89:D89)</f>
+        <v>72.666666666666671</v>
+      </c>
+      <c r="N89">
+        <f>AVERAGE(E89:G89)</f>
+        <v>73</v>
+      </c>
+      <c r="O89">
+        <f>AVERAGE(H89:J89)</f>
+        <v>74.666666666666671</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>100</v>
+      </c>
+      <c r="B90">
+        <v>75</v>
+      </c>
+      <c r="C90">
+        <v>73</v>
+      </c>
+      <c r="D90">
+        <v>70</v>
+      </c>
+      <c r="E90">
+        <v>74</v>
+      </c>
+      <c r="F90">
+        <v>74</v>
+      </c>
+      <c r="G90">
+        <v>76</v>
+      </c>
+      <c r="H90">
+        <v>74</v>
+      </c>
+      <c r="I90">
+        <v>74</v>
+      </c>
+      <c r="J90">
+        <v>72</v>
+      </c>
+      <c r="L90">
+        <v>100</v>
+      </c>
+      <c r="M90">
+        <f>AVERAGE(B90:D90)</f>
+        <v>72.666666666666671</v>
+      </c>
+      <c r="N90">
+        <f>AVERAGE(E90:G90)</f>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="O90">
+        <f>AVERAGE(H90:J90)</f>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>50</v>
+      </c>
+      <c r="B91">
+        <v>70</v>
+      </c>
+      <c r="C91">
+        <v>73</v>
+      </c>
+      <c r="D91">
+        <v>73</v>
+      </c>
+      <c r="E91">
+        <v>74</v>
+      </c>
+      <c r="F91">
+        <v>74</v>
+      </c>
+      <c r="G91">
+        <v>74</v>
+      </c>
+      <c r="H91">
+        <v>71</v>
+      </c>
+      <c r="I91">
+        <v>71</v>
+      </c>
+      <c r="J91">
+        <v>73</v>
+      </c>
+      <c r="L91">
+        <v>50</v>
+      </c>
+      <c r="M91">
+        <f>AVERAGE(B91:D91)</f>
+        <v>72</v>
+      </c>
+      <c r="N91">
+        <f>AVERAGE(E91:G91)</f>
+        <v>74</v>
+      </c>
+      <c r="O91">
+        <f>AVERAGE(H91:J91)</f>
+        <v>71.666666666666671</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
